--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220415_180602.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220415_180602.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>SSK</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>FNC</t>
@@ -2287,6 +2290,12 @@
       <c r="F42" t="s">
         <v>196</v>
       </c>
+      <c r="G42" t="s">
+        <v>259</v>
+      </c>
+      <c r="H42" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
@@ -2308,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
         <v>244</v>
@@ -2334,7 +2343,7 @@
         <v>197</v>
       </c>
       <c r="G44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H44" t="s">
         <v>244</v>
@@ -2360,10 +2369,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2386,7 +2395,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
         <v>244</v>
@@ -2412,7 +2421,7 @@
         <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H47" t="s">
         <v>244</v>
@@ -2568,7 +2577,7 @@
         <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H53" t="s">
         <v>244</v>
@@ -2671,6 +2680,12 @@
       <c r="F57" t="s">
         <v>207</v>
       </c>
+      <c r="G57" t="s">
+        <v>259</v>
+      </c>
+      <c r="H57" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
@@ -2796,7 +2811,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H62" t="s">
         <v>244</v>
@@ -2848,7 +2863,7 @@
         <v>212</v>
       </c>
       <c r="G64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H64" t="s">
         <v>244</v>
@@ -2952,7 +2967,7 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H68" t="s">
         <v>244</v>
@@ -3212,7 +3227,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
@@ -3498,7 +3513,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H89" t="s">
         <v>244</v>
@@ -3524,7 +3539,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
         <v>244</v>
@@ -3576,7 +3591,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
@@ -3602,7 +3617,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3627,6 +3642,12 @@
       <c r="F94" t="s">
         <v>102</v>
       </c>
+      <c r="G94" t="s">
+        <v>246</v>
+      </c>
+      <c r="H94" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
@@ -3674,7 +3695,7 @@
         <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>
@@ -3726,7 +3747,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H98" t="s">
         <v>244</v>
@@ -3752,7 +3773,7 @@
         <v>233</v>
       </c>
       <c r="G99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220415_180602.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220415_180602.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-15</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220415_180602.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220415_180602.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -2031,7 +2028,7 @@
         <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H32" t="s">
         <v>244</v>
@@ -2057,7 +2054,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H33" t="s">
         <v>244</v>
@@ -2161,7 +2158,7 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H37" t="s">
         <v>244</v>
@@ -2239,10 +2236,10 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2265,7 +2262,7 @@
         <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H41" t="s">
         <v>244</v>
@@ -2291,7 +2288,7 @@
         <v>196</v>
       </c>
       <c r="G42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H42" t="s">
         <v>244</v>
@@ -2317,7 +2314,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H43" t="s">
         <v>244</v>
@@ -2343,7 +2340,7 @@
         <v>197</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H44" t="s">
         <v>244</v>
@@ -2369,10 +2366,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2395,7 +2392,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H46" t="s">
         <v>244</v>
@@ -2421,7 +2418,7 @@
         <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H47" t="s">
         <v>244</v>
@@ -2499,7 +2496,7 @@
         <v>200</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
         <v>244</v>
@@ -2525,10 +2522,10 @@
         <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2577,7 +2574,7 @@
         <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H53" t="s">
         <v>244</v>
@@ -2681,7 +2678,7 @@
         <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H57" t="s">
         <v>244</v>
@@ -2811,7 +2808,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H62" t="s">
         <v>244</v>
@@ -2863,7 +2860,7 @@
         <v>212</v>
       </c>
       <c r="G64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H64" t="s">
         <v>244</v>
@@ -2967,7 +2964,7 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H68" t="s">
         <v>244</v>
@@ -3019,7 +3016,7 @@
         <v>189</v>
       </c>
       <c r="G70" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H70" t="s">
         <v>244</v>
@@ -3227,7 +3224,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
@@ -3279,10 +3276,10 @@
         <v>224</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3435,7 +3432,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3513,7 +3510,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H89" t="s">
         <v>244</v>
@@ -3539,7 +3536,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H90" t="s">
         <v>244</v>
@@ -3591,7 +3588,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
@@ -3617,7 +3614,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3695,7 +3692,7 @@
         <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>
@@ -3747,7 +3744,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H98" t="s">
         <v>244</v>
@@ -3773,7 +3770,7 @@
         <v>233</v>
       </c>
       <c r="G99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>
